--- a/src/excel/BaseDatosIngles.xlsx
+++ b/src/excel/BaseDatosIngles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68188986-8550-4EF0-82D8-763E1A05D1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45CFE9-96E3-42D6-BA9A-CE5474F1F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E275EF6E-4BBA-4CAE-93FE-32B203E29D4F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1038">
   <si>
     <t>ID</t>
   </si>
@@ -221,13 +221,2941 @@
   </si>
   <si>
     <t>moulding</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>dimple</t>
+  </si>
+  <si>
+    <t>nape</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>molar</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>pupil</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>armpit</t>
+  </si>
+  <si>
+    <t>wrinkle</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>boob</t>
+  </si>
+  <si>
+    <t>gum</t>
+  </si>
+  <si>
+    <t>lower lip</t>
+  </si>
+  <si>
+    <t>palate</t>
+  </si>
+  <si>
+    <t>uvula</t>
+  </si>
+  <si>
+    <t>crows feet</t>
+  </si>
+  <si>
+    <t>human trunk/torso</t>
+  </si>
+  <si>
+    <t>human body</t>
+  </si>
+  <si>
+    <t>groin</t>
+  </si>
+  <si>
+    <t>shin</t>
+  </si>
+  <si>
+    <t>thigh</t>
+  </si>
+  <si>
+    <t>calf</t>
+  </si>
+  <si>
+    <t>upper back</t>
+  </si>
+  <si>
+    <t>brest</t>
+  </si>
+  <si>
+    <t>dimpless</t>
+  </si>
+  <si>
+    <t>dimpled</t>
+  </si>
+  <si>
+    <t>dimples/dimpling</t>
+  </si>
+  <si>
+    <t>toothache</t>
+  </si>
+  <si>
+    <t>tong</t>
+  </si>
+  <si>
+    <t>tongue twister</t>
+  </si>
+  <si>
+    <t>bearded</t>
+  </si>
+  <si>
+    <t>belly button</t>
+  </si>
+  <si>
+    <t>belly fat</t>
+  </si>
+  <si>
+    <t>wrinkled</t>
+  </si>
+  <si>
+    <t>wrinkless</t>
+  </si>
+  <si>
+    <t>shoulder blade</t>
+  </si>
+  <si>
+    <t>cheeky</t>
+  </si>
+  <si>
+    <t>gummy</t>
+  </si>
+  <si>
+    <t>gump</t>
+  </si>
+  <si>
+    <t>gummies</t>
+  </si>
+  <si>
+    <t>lipstick</t>
+  </si>
+  <si>
+    <t>top eyelid</t>
+  </si>
+  <si>
+    <t>bottom eyelid</t>
+  </si>
+  <si>
+    <t>bodyguard</t>
+  </si>
+  <si>
+    <t>thigh bone</t>
+  </si>
+  <si>
+    <t>calf muscle</t>
+  </si>
+  <si>
+    <t>ABVERVIOS</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>wall shelf</t>
+  </si>
+  <si>
+    <t>sideboard</t>
+  </si>
+  <si>
+    <t>wardrobe</t>
+  </si>
+  <si>
+    <t>glass jar</t>
+  </si>
+  <si>
+    <t>pills bottles</t>
+  </si>
+  <si>
+    <t>manual juicer</t>
+  </si>
+  <si>
+    <t>plastic jug</t>
+  </si>
+  <si>
+    <t>pitcher</t>
+  </si>
+  <si>
+    <t>square lid</t>
+  </si>
+  <si>
+    <t>sharpener</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>drawer dresser-fabric storage</t>
+  </si>
+  <si>
+    <t>drawer dresser</t>
+  </si>
+  <si>
+    <t>spiral lined notebook</t>
+  </si>
+  <si>
+    <t>spiral blank notebook</t>
+  </si>
+  <si>
+    <t>quad ruled spiral notebook</t>
+  </si>
+  <si>
+    <t>sketch book/pad</t>
+  </si>
+  <si>
+    <t>fan plastic housing</t>
+  </si>
+  <si>
+    <t>wooden model kits</t>
+  </si>
+  <si>
+    <t>church model kit</t>
+  </si>
+  <si>
+    <t>tumbler</t>
+  </si>
+  <si>
+    <t>plastic cup</t>
+  </si>
+  <si>
+    <t>plastic tumbler</t>
+  </si>
+  <si>
+    <t>drinking glasses</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>collectible action figure</t>
+  </si>
+  <si>
+    <t>wireless gamepad</t>
+  </si>
+  <si>
+    <t>coffe mug</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>shelf life</t>
+  </si>
+  <si>
+    <t>sidebar</t>
+  </si>
+  <si>
+    <t>wardship</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>warden</t>
+  </si>
+  <si>
+    <t>jarring</t>
+  </si>
+  <si>
+    <t>jargon</t>
+  </si>
+  <si>
+    <t>glassware</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>juicy</t>
+  </si>
+  <si>
+    <t>jug</t>
+  </si>
+  <si>
+    <t>juggler</t>
+  </si>
+  <si>
+    <t>juggle</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>pitched</t>
+  </si>
+  <si>
+    <t>cambiar foto</t>
+  </si>
+  <si>
+    <t>squared</t>
+  </si>
+  <si>
+    <t>square root</t>
+  </si>
+  <si>
+    <t>sharpen</t>
+  </si>
+  <si>
+    <t>sharply</t>
+  </si>
+  <si>
+    <t>handsome</t>
+  </si>
+  <si>
+    <t>drawer chest</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>sketchy</t>
+  </si>
+  <si>
+    <t>kitten</t>
+  </si>
+  <si>
+    <t>kite</t>
+  </si>
+  <si>
+    <t>tumble</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>drawn</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>gamer</t>
+  </si>
+  <si>
+    <t>mugging</t>
+  </si>
+  <si>
+    <t>muggy</t>
+  </si>
+  <si>
+    <t>mugger</t>
+  </si>
+  <si>
+    <t>shirtless</t>
+  </si>
+  <si>
+    <t>short sleeve shirt</t>
+  </si>
+  <si>
+    <t>crane model kit</t>
+  </si>
+  <si>
+    <t>wood strip</t>
+  </si>
+  <si>
+    <t>steel beam</t>
+  </si>
+  <si>
+    <t>hair brush</t>
+  </si>
+  <si>
+    <t>paint brush</t>
+  </si>
+  <si>
+    <t>picture frame</t>
+  </si>
+  <si>
+    <t>grocery bag</t>
+  </si>
+  <si>
+    <t>tote bag</t>
+  </si>
+  <si>
+    <t>spiderweb</t>
+  </si>
+  <si>
+    <t>plywood</t>
+  </si>
+  <si>
+    <t>MDF board</t>
+  </si>
+  <si>
+    <t>air mattress</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>teaspoon</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>soup bowl</t>
+  </si>
+  <si>
+    <t>garbage bag</t>
+  </si>
+  <si>
+    <t>plastic bag</t>
+  </si>
+  <si>
+    <t>extension cord</t>
+  </si>
+  <si>
+    <t>flat plug</t>
+  </si>
+  <si>
+    <t>screwdriver</t>
+  </si>
+  <si>
+    <t>deodorant</t>
+  </si>
+  <si>
+    <t>keychain</t>
+  </si>
+  <si>
+    <t>shower curtain</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>laptop stand</t>
+  </si>
+  <si>
+    <t>handheld vacuum cleaner</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>striped</t>
+  </si>
+  <si>
+    <t>stripe</t>
+  </si>
+  <si>
+    <t>steelers</t>
+  </si>
+  <si>
+    <t>brushing</t>
+  </si>
+  <si>
+    <t>framed</t>
+  </si>
+  <si>
+    <t>baggage</t>
+  </si>
+  <si>
+    <t>bagel</t>
+  </si>
+  <si>
+    <t>boarding</t>
+  </si>
+  <si>
+    <t>boarding school</t>
+  </si>
+  <si>
+    <t>boarding pass</t>
+  </si>
+  <si>
+    <t>mattress cover</t>
+  </si>
+  <si>
+    <t>mattress pad</t>
+  </si>
+  <si>
+    <t>spoonful</t>
+  </si>
+  <si>
+    <t>platelet</t>
+  </si>
+  <si>
+    <t>bowling</t>
+  </si>
+  <si>
+    <t>bowling alley</t>
+  </si>
+  <si>
+    <t>garbage disposal</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>flatter</t>
+  </si>
+  <si>
+    <t>screwed</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hardware/common nail</t>
+  </si>
+  <si>
+    <t>shoes box</t>
+  </si>
+  <si>
+    <t>stripe track pant</t>
+  </si>
+  <si>
+    <t>sweatpant</t>
+  </si>
+  <si>
+    <t>small corrugated paper box</t>
+  </si>
+  <si>
+    <t>tin roof</t>
+  </si>
+  <si>
+    <t>cement wall</t>
+  </si>
+  <si>
+    <t>door lever handle</t>
+  </si>
+  <si>
+    <t>door lockset</t>
+  </si>
+  <si>
+    <t>door knob</t>
+  </si>
+  <si>
+    <t>dining room</t>
+  </si>
+  <si>
+    <t>christmas ornaments</t>
+  </si>
+  <si>
+    <t>fingers</t>
+  </si>
+  <si>
+    <t>lower back</t>
+  </si>
+  <si>
+    <t>earring</t>
+  </si>
+  <si>
+    <t>glasses/eyeglasses</t>
+  </si>
+  <si>
+    <t>sunglasses</t>
+  </si>
+  <si>
+    <t>ankle</t>
+  </si>
+  <si>
+    <t>forearm</t>
+  </si>
+  <si>
+    <t>temples</t>
+  </si>
+  <si>
+    <t>jaw</t>
+  </si>
+  <si>
+    <t>dimples</t>
+  </si>
+  <si>
+    <t>nostril</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>tingling</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cemented</t>
+  </si>
+  <si>
+    <t>doorbell</t>
+  </si>
+  <si>
+    <t>lever</t>
+  </si>
+  <si>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>locker</t>
+  </si>
+  <si>
+    <t>knobby</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>christmas eve</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>contact lenses</t>
+  </si>
+  <si>
+    <t>forehand</t>
+  </si>
+  <si>
+    <t>anklet</t>
+  </si>
+  <si>
+    <t>cambiar imagen</t>
+  </si>
+  <si>
+    <t>jaw dropping</t>
+  </si>
+  <si>
+    <t>eyelashes</t>
+  </si>
+  <si>
+    <t>push down bottle</t>
+  </si>
+  <si>
+    <t>reinforcing iron cage</t>
+  </si>
+  <si>
+    <t>alcohol dispenser bottle</t>
+  </si>
+  <si>
+    <t>bar soap</t>
+  </si>
+  <si>
+    <t>talcum powder</t>
+  </si>
+  <si>
+    <t>donut pillow</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>tank top</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>acrylic sheet</t>
+  </si>
+  <si>
+    <t>tank undershirt</t>
+  </si>
+  <si>
+    <t>shoulder bag</t>
+  </si>
+  <si>
+    <t>fist</t>
+  </si>
+  <si>
+    <t>index finger</t>
+  </si>
+  <si>
+    <t>middle finger</t>
+  </si>
+  <si>
+    <t>ring finger</t>
+  </si>
+  <si>
+    <t>little finger</t>
+  </si>
+  <si>
+    <t>thumb finger</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>umbilicus</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>foot sole</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>cement pillar</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>ironing</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>alcoholic</t>
+  </si>
+  <si>
+    <t>dispensary</t>
+  </si>
+  <si>
+    <t>barely</t>
+  </si>
+  <si>
+    <t>bargain</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>pillowcase</t>
+  </si>
+  <si>
+    <t>towel rack</t>
+  </si>
+  <si>
+    <t>belted</t>
+  </si>
+  <si>
+    <t>belting</t>
+  </si>
+  <si>
+    <t>tanker</t>
+  </si>
+  <si>
+    <t>bathtub</t>
+  </si>
+  <si>
+    <t>bathe</t>
+  </si>
+  <si>
+    <t>necktie</t>
+  </si>
+  <si>
+    <t>fistbump</t>
+  </si>
+  <si>
+    <t>indexing</t>
+  </si>
+  <si>
+    <t>middle name</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>middle east</t>
+  </si>
+  <si>
+    <t>ringing</t>
+  </si>
+  <si>
+    <t>little bit</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>thump</t>
+  </si>
+  <si>
+    <t>chestnut</t>
+  </si>
+  <si>
+    <t>chest of drawers</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>solely</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>base knuckles</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>moustache</t>
+  </si>
+  <si>
+    <t>fan guard</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>bathroom sink</t>
+  </si>
+  <si>
+    <t>faucet</t>
+  </si>
+  <si>
+    <t>microwave oven</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>storage room</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>toothpaste</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>carpentry workshop</t>
+  </si>
+  <si>
+    <t>sawdust</t>
+  </si>
+  <si>
+    <t>window bars</t>
+  </si>
+  <si>
+    <t>dinner fork</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>razor</t>
+  </si>
+  <si>
+    <t>hair clipper</t>
+  </si>
+  <si>
+    <t>power strip</t>
+  </si>
+  <si>
+    <t>wine glass</t>
+  </si>
+  <si>
+    <t>photo frame</t>
+  </si>
+  <si>
+    <t>christmas tree</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>toilet seat</t>
+  </si>
+  <si>
+    <t>cutlery set</t>
+  </si>
+  <si>
+    <t>spray bottle</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>knucklehead</t>
+  </si>
+  <si>
+    <t>enveloped</t>
+  </si>
+  <si>
+    <t>moustached</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>sinkhole</t>
+  </si>
+  <si>
+    <t>sinking</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>oven mitt</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>stairway</t>
+  </si>
+  <si>
+    <t>yardstick</t>
+  </si>
+  <si>
+    <t>yard sale</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>toiletries</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>sawmill</t>
+  </si>
+  <si>
+    <t>sawing</t>
+  </si>
+  <si>
+    <t>forklift</t>
+  </si>
+  <si>
+    <t>forked</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>razor blade</t>
+  </si>
+  <si>
+    <t>clipping</t>
+  </si>
+  <si>
+    <t>power off</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>winer</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>spraying</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>sweatshirts</t>
+  </si>
+  <si>
+    <t>hoodies</t>
+  </si>
+  <si>
+    <t>activewear</t>
+  </si>
+  <si>
+    <t>loungewear</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>tee/t-shirt</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>blouse</t>
+  </si>
+  <si>
+    <t>suiting</t>
+  </si>
+  <si>
+    <t>blazer</t>
+  </si>
+  <si>
+    <t>underwear</t>
+  </si>
+  <si>
+    <t>pullover</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>windbreaker</t>
+  </si>
+  <si>
+    <t>jogger</t>
+  </si>
+  <si>
+    <t>tunic</t>
+  </si>
+  <si>
+    <t>cardigan</t>
+  </si>
+  <si>
+    <t>bodysuit</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>bralette</t>
+  </si>
+  <si>
+    <t>panty</t>
+  </si>
+  <si>
+    <t>chemise</t>
+  </si>
+  <si>
+    <t>robe</t>
+  </si>
+  <si>
+    <t>legging</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>blaze</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>sweating</t>
+  </si>
+  <si>
+    <t>hood</t>
+  </si>
+  <si>
+    <t>hooded</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>lounger</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <t>dressed</t>
+  </si>
+  <si>
+    <t>dressing</t>
+  </si>
+  <si>
+    <t>coating</t>
+  </si>
+  <si>
+    <t>coated</t>
+  </si>
+  <si>
+    <t>panting</t>
+  </si>
+  <si>
+    <t>pantry</t>
+  </si>
+  <si>
+    <t>skirting</t>
+  </si>
+  <si>
+    <t>skirt steak</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>suitcase</t>
+  </si>
+  <si>
+    <t>suite</t>
+  </si>
+  <si>
+    <t>suit up</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>underrated</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>shortcut</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>jog</t>
+  </si>
+  <si>
+    <t>tuning</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>chemist</t>
+  </si>
+  <si>
+    <t>hoodie jacket</t>
+  </si>
+  <si>
+    <t>puffer jacket</t>
+  </si>
+  <si>
+    <t>bike short</t>
+  </si>
+  <si>
+    <t>sherpa pullover</t>
+  </si>
+  <si>
+    <t>hoodie tee</t>
+  </si>
+  <si>
+    <t>sports bra</t>
+  </si>
+  <si>
+    <t>down jacket</t>
+  </si>
+  <si>
+    <t>suit pant</t>
+  </si>
+  <si>
+    <t>suit skirt</t>
+  </si>
+  <si>
+    <t>cami</t>
+  </si>
+  <si>
+    <t>anorak jacket</t>
+  </si>
+  <si>
+    <t>shoulder pad tee</t>
+  </si>
+  <si>
+    <t>legging jean</t>
+  </si>
+  <si>
+    <t>tunic blouse</t>
+  </si>
+  <si>
+    <t>yoke blouse</t>
+  </si>
+  <si>
+    <t>suede coat</t>
+  </si>
+  <si>
+    <t>wool jacket</t>
+  </si>
+  <si>
+    <t>high low hem dress</t>
+  </si>
+  <si>
+    <t>twill pant</t>
+  </si>
+  <si>
+    <t>paperbag pant</t>
+  </si>
+  <si>
+    <t>career blouse</t>
+  </si>
+  <si>
+    <t>cropped hoodie</t>
+  </si>
+  <si>
+    <t>seamless tank</t>
+  </si>
+  <si>
+    <t>tees</t>
+  </si>
+  <si>
+    <t>boyfriend denim</t>
+  </si>
+  <si>
+    <t>belted jacket</t>
+  </si>
+  <si>
+    <t>wrap top</t>
+  </si>
+  <si>
+    <t>knit sweater</t>
+  </si>
+  <si>
+    <t>crinkle tee</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>puffer vest</t>
+  </si>
+  <si>
+    <t>camisole shirt</t>
+  </si>
+  <si>
+    <t>puff</t>
+  </si>
+  <si>
+    <t>yoke</t>
+  </si>
+  <si>
+    <t>puffer</t>
+  </si>
+  <si>
+    <t>puffy/puffed</t>
+  </si>
+  <si>
+    <t>puffery</t>
+  </si>
+  <si>
+    <t>puffer fish</t>
+  </si>
+  <si>
+    <t>biker</t>
+  </si>
+  <si>
+    <t>camille</t>
+  </si>
+  <si>
+    <t>sportwear</t>
+  </si>
+  <si>
+    <t>sporty</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>knit</t>
+  </si>
+  <si>
+    <t>crinkle</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>paddy</t>
+  </si>
+  <si>
+    <t>yoked</t>
+  </si>
+  <si>
+    <t>yokel</t>
+  </si>
+  <si>
+    <t>suede leather</t>
+  </si>
+  <si>
+    <t>woolen/woolly</t>
+  </si>
+  <si>
+    <t>career path</t>
+  </si>
+  <si>
+    <t>seam</t>
+  </si>
+  <si>
+    <t>seemstress</t>
+  </si>
+  <si>
+    <t>seamlessly</t>
+  </si>
+  <si>
+    <t>wrapper</t>
+  </si>
+  <si>
+    <t>wrapping</t>
+  </si>
+  <si>
+    <t>wrapped</t>
+  </si>
+  <si>
+    <t>knitting</t>
+  </si>
+  <si>
+    <t>knitwear</t>
+  </si>
+  <si>
+    <t>knitted</t>
+  </si>
+  <si>
+    <t>crinkled</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>involve</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>relate</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>tend</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>seemingly</t>
+  </si>
+  <si>
+    <t>seeming</t>
+  </si>
+  <si>
+    <t>seemly</t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>carry on</t>
+  </si>
+  <si>
+    <t>carry out</t>
+  </si>
+  <si>
+    <t>carrying</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>expectation</t>
+  </si>
+  <si>
+    <t>expectancy</t>
+  </si>
+  <si>
+    <t>let go</t>
+  </si>
+  <si>
+    <t>let's go</t>
+  </si>
+  <si>
+    <t>involvement</t>
+  </si>
+  <si>
+    <t>involved</t>
+  </si>
+  <si>
+    <t>creature</t>
+  </si>
+  <si>
+    <t>creative, created</t>
+  </si>
+  <si>
+    <t>selling</t>
+  </si>
+  <si>
+    <t>selling point</t>
+  </si>
+  <si>
+    <t>claimant</t>
+  </si>
+  <si>
+    <t>supported</t>
+  </si>
+  <si>
+    <t>supporter</t>
+  </si>
+  <si>
+    <t>achieved</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>achiever</t>
+  </si>
+  <si>
+    <t>seeker, seek</t>
+  </si>
+  <si>
+    <t>dealing</t>
+  </si>
+  <si>
+    <t>dealer, deal</t>
+  </si>
+  <si>
+    <t>pick up</t>
+  </si>
+  <si>
+    <t>picky</t>
+  </si>
+  <si>
+    <t>pickle</t>
+  </si>
+  <si>
+    <t>picking</t>
+  </si>
+  <si>
+    <t>pick, picker</t>
+  </si>
+  <si>
+    <t>place, placement, plaacing</t>
+  </si>
+  <si>
+    <t>argued</t>
+  </si>
+  <si>
+    <t>tasted</t>
+  </si>
+  <si>
+    <t>tasteless</t>
+  </si>
+  <si>
+    <t>taste, tasting</t>
+  </si>
+  <si>
+    <t>taster</t>
+  </si>
+  <si>
+    <t>weary, weared</t>
+  </si>
+  <si>
+    <t>catchy</t>
+  </si>
+  <si>
+    <t>catch up</t>
+  </si>
+  <si>
+    <t>pointed</t>
+  </si>
+  <si>
+    <t>point, pointer</t>
+  </si>
+  <si>
+    <t>pull up</t>
+  </si>
+  <si>
+    <t>pulled</t>
+  </si>
+  <si>
+    <t>pull, pulling</t>
+  </si>
+  <si>
+    <t>puller</t>
+  </si>
+  <si>
+    <t>pulley</t>
+  </si>
+  <si>
+    <t>related, relating</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>relater</t>
+  </si>
+  <si>
+    <t>affectionate, affecting, affected</t>
+  </si>
+  <si>
+    <t>avoidance</t>
+  </si>
+  <si>
+    <t>avoidant, avoided</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>express, expressed</t>
+  </si>
+  <si>
+    <t>tended</t>
+  </si>
+  <si>
+    <t>tender</t>
+  </si>
+  <si>
+    <t>treated, treaty</t>
+  </si>
+  <si>
+    <t>treat, treatment</t>
+  </si>
+  <si>
+    <t>trater</t>
+  </si>
+  <si>
+    <t>throw, throwing</t>
+  </si>
+  <si>
+    <t>throwed</t>
+  </si>
+  <si>
+    <t>thrower</t>
+  </si>
+  <si>
+    <t>encouragement</t>
+  </si>
+  <si>
+    <t>encouraged</t>
+  </si>
+  <si>
+    <t>encourager</t>
+  </si>
+  <si>
+    <t>forced, forceful</t>
+  </si>
+  <si>
+    <t>fill, filling, filler</t>
+  </si>
+  <si>
+    <t>filled</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t>improved</t>
+  </si>
+  <si>
+    <t>improver</t>
+  </si>
+  <si>
+    <t>enhancement</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>enhancer</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>assmt</t>
+  </si>
+  <si>
+    <t>harass</t>
+  </si>
+  <si>
+    <t>deter</t>
+  </si>
+  <si>
+    <t>smear</t>
+  </si>
+  <si>
+    <t>oversee</t>
+  </si>
+  <si>
+    <t>impromptu</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>heighten</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>funnel</t>
+  </si>
+  <si>
+    <t>takeover</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>derail</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>soar</t>
+  </si>
+  <si>
+    <t>collude</t>
+  </si>
+  <si>
+    <t>oust</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>wean</t>
+  </si>
+  <si>
+    <t>ditch</t>
+  </si>
+  <si>
+    <t>hike</t>
+  </si>
+  <si>
+    <t>overtake</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>chant</t>
+  </si>
+  <si>
+    <t>brew</t>
+  </si>
+  <si>
+    <t>scramble</t>
+  </si>
+  <si>
+    <t>gloat</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>buyback</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>defuse</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>dwindle</t>
+  </si>
+  <si>
+    <t>stumble</t>
+  </si>
+  <si>
+    <t>dislocate</t>
+  </si>
+  <si>
+    <t>tow</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>redeem</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>surrender</t>
+  </si>
+  <si>
+    <t>alleviate</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>holdout</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>suspect</t>
+  </si>
+  <si>
+    <t>acquiesce</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>reap</t>
+  </si>
+  <si>
+    <t>nibble</t>
+  </si>
+  <si>
+    <t>slander</t>
+  </si>
+  <si>
+    <t>spite</t>
+  </si>
+  <si>
+    <t>brandish</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>beleaguer</t>
+  </si>
+  <si>
+    <t>bribe</t>
+  </si>
+  <si>
+    <t>sought</t>
+  </si>
+  <si>
+    <t>dwell</t>
+  </si>
+  <si>
+    <t>bemoan</t>
+  </si>
+  <si>
+    <t>avert</t>
+  </si>
+  <si>
+    <t>tweak</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>hurl</t>
+  </si>
+  <si>
+    <t>scant</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>haste</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>stab</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>revolt</t>
+  </si>
+  <si>
+    <t>riot</t>
+  </si>
+  <si>
+    <t>quell</t>
+  </si>
+  <si>
+    <t>dent</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>collide</t>
+  </si>
+  <si>
+    <t>ignite</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>equate</t>
+  </si>
+  <si>
+    <t>convene</t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>outperform</t>
+  </si>
+  <si>
+    <t>pity</t>
+  </si>
+  <si>
+    <t>annoy</t>
+  </si>
+  <si>
+    <t>ensue</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>chew</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>slop</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>grave</t>
+  </si>
+  <si>
+    <t>daub</t>
+  </si>
+  <si>
+    <t>expel</t>
+  </si>
+  <si>
+    <t>snag</t>
+  </si>
+  <si>
+    <t>mangle</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>overturn</t>
+  </si>
+  <si>
+    <t>swathe</t>
+  </si>
+  <si>
+    <t>loot</t>
+  </si>
+  <si>
+    <t>deflect</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>dwarf</t>
+  </si>
+  <si>
+    <t>slew</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>mantle</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>shelve</t>
+  </si>
+  <si>
+    <t>reign</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>frost</t>
+  </si>
+  <si>
+    <t>litter</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>mumble</t>
+  </si>
+  <si>
+    <t>garble</t>
+  </si>
+  <si>
+    <t>seize</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>enact</t>
+  </si>
+  <si>
+    <t>hijack</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>endanger</t>
+  </si>
+  <si>
+    <t>distort</t>
+  </si>
+  <si>
+    <t>botch</t>
+  </si>
+  <si>
+    <t>cripple</t>
+  </si>
+  <si>
+    <t>unscrew</t>
+  </si>
+  <si>
+    <t>rehearse</t>
+  </si>
+  <si>
+    <t>doled out</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>rape</t>
+  </si>
+  <si>
+    <t>faint</t>
+  </si>
+  <si>
+    <t>outlaw</t>
+  </si>
+  <si>
+    <t>wrest</t>
+  </si>
+  <si>
+    <t>baffle</t>
+  </si>
+  <si>
+    <t>rattle</t>
+  </si>
+  <si>
+    <t>alienate</t>
+  </si>
+  <si>
+    <t>utter</t>
+  </si>
+  <si>
+    <t>distress</t>
+  </si>
+  <si>
+    <t>splint</t>
+  </si>
+  <si>
+    <t>worship</t>
+  </si>
+  <si>
+    <t>kidnap</t>
+  </si>
+  <si>
+    <t>subvert</t>
+  </si>
+  <si>
+    <t>glide</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>unraveling</t>
+  </si>
+  <si>
+    <t>scold</t>
+  </si>
+  <si>
+    <t>unveil</t>
+  </si>
+  <si>
+    <t>unveiled</t>
+  </si>
+  <si>
+    <t>unveiling, unveilment</t>
+  </si>
+  <si>
+    <t>PARA LAS IMAGENES necesito verbo sustantivo y otra parte con verbo y adjetivo</t>
+  </si>
+  <si>
+    <t>hindered, hind</t>
+  </si>
+  <si>
+    <t>hold on</t>
+  </si>
+  <si>
+    <t>hold up</t>
+  </si>
+  <si>
+    <t>holding</t>
+  </si>
+  <si>
+    <t>hollow</t>
+  </si>
+  <si>
+    <t>hold, holder</t>
+  </si>
+  <si>
+    <t>bording</t>
+  </si>
+  <si>
+    <t>bord</t>
+  </si>
+  <si>
+    <t>boarded</t>
+  </si>
+  <si>
+    <t>hostil, hosted,</t>
+  </si>
+  <si>
+    <t>host, hostel, hostage</t>
+  </si>
+  <si>
+    <t>hosting</t>
+  </si>
+  <si>
+    <t>VIENE DE ASSESSMENT</t>
+  </si>
+  <si>
+    <t>harassment</t>
+  </si>
+  <si>
+    <t>harassed</t>
+  </si>
+  <si>
+    <t>harasser</t>
+  </si>
+  <si>
+    <t>determent, deterring</t>
+  </si>
+  <si>
+    <t>smeared</t>
+  </si>
+  <si>
+    <t>smearer</t>
+  </si>
+  <si>
+    <t>overseer</t>
+  </si>
+  <si>
+    <t>overseed</t>
+  </si>
+  <si>
+    <t>ES UN ADJETIVO</t>
+  </si>
+  <si>
+    <t>messy, messed up</t>
+  </si>
+  <si>
+    <t>heightening</t>
+  </si>
+  <si>
+    <t>heightened</t>
+  </si>
+  <si>
+    <t>laughed</t>
+  </si>
+  <si>
+    <t>laugh, laugher</t>
+  </si>
+  <si>
+    <t>petty</t>
+  </si>
+  <si>
+    <t>pet, petting</t>
+  </si>
+  <si>
+    <t>funneled</t>
+  </si>
+  <si>
+    <t>funneling</t>
+  </si>
+  <si>
+    <t>funnel, funneler</t>
+  </si>
+  <si>
+    <t>takeover bid</t>
+  </si>
+  <si>
+    <t>purchaser</t>
+  </si>
+  <si>
+    <t>purchasing, purchased</t>
+  </si>
+  <si>
+    <t>purchase, purchasement</t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>SOLO SUSTANTIVO</t>
+  </si>
+  <si>
+    <t>derailment</t>
+  </si>
+  <si>
+    <t>derailed</t>
+  </si>
+  <si>
+    <t>derailer</t>
+  </si>
+  <si>
+    <t>pledged</t>
+  </si>
+  <si>
+    <t>pledge, pledgement</t>
+  </si>
+  <si>
+    <t>pledger</t>
+  </si>
+  <si>
+    <t>soaring</t>
+  </si>
+  <si>
+    <t>colluded, colluding</t>
+  </si>
+  <si>
+    <t>ousting</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>weaning</t>
+  </si>
+  <si>
+    <t>chanting</t>
+  </si>
+  <si>
+    <t>brewing</t>
+  </si>
+  <si>
+    <t>urgently</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>weaned</t>
+  </si>
+  <si>
+    <t>ditched</t>
+  </si>
+  <si>
+    <t>blasted</t>
+  </si>
+  <si>
+    <t>chanted</t>
+  </si>
+  <si>
+    <t>brewed</t>
+  </si>
+  <si>
+    <t>ousted</t>
+  </si>
+  <si>
+    <t>ditch, ditcher</t>
+  </si>
+  <si>
+    <t>hike, hiking</t>
+  </si>
+  <si>
+    <t>hiking boots</t>
+  </si>
+  <si>
+    <t>hiking trails</t>
+  </si>
+  <si>
+    <t>hiker</t>
+  </si>
+  <si>
+    <t>overtaken</t>
+  </si>
+  <si>
+    <t>overtaking</t>
+  </si>
+  <si>
+    <t>blast, blasting</t>
+  </si>
+  <si>
+    <t>blasted down</t>
+  </si>
+  <si>
+    <t>blasted out</t>
+  </si>
+  <si>
+    <t>surveyed</t>
+  </si>
+  <si>
+    <t>towed</t>
+  </si>
+  <si>
+    <t>surrendered</t>
+  </si>
+  <si>
+    <t>brew, brewery, brewer</t>
+  </si>
+  <si>
+    <t>scramble, scrambling</t>
+  </si>
+  <si>
+    <t>raise, raising</t>
+  </si>
+  <si>
+    <t>defused</t>
+  </si>
+  <si>
+    <t>raised</t>
+  </si>
+  <si>
+    <t>scrambler</t>
+  </si>
+  <si>
+    <t>scrambled, scrambly</t>
+  </si>
+  <si>
+    <t>gloater, gloated</t>
+  </si>
+  <si>
+    <t>surveyor</t>
+  </si>
+  <si>
+    <t>survey, surveying, surveyance</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>dwindled, dwindling</t>
+  </si>
+  <si>
+    <t>dislocation</t>
+  </si>
+  <si>
+    <t>dislocated (desde aqui solo adjetivos)</t>
+  </si>
+  <si>
+    <t>preying on</t>
+  </si>
+  <si>
+    <t>preyed, preying</t>
+  </si>
+  <si>
+    <t>redeeming, redeemer</t>
+  </si>
+  <si>
+    <t>SUSTANTIVO</t>
+  </si>
+  <si>
+    <t>ADJETIVO</t>
+  </si>
+  <si>
+    <t>DE HOLD</t>
+  </si>
+  <si>
+    <t>DE SEEK</t>
+  </si>
+  <si>
+    <t>SUSTANTIVO (APURO)</t>
+  </si>
+  <si>
+    <t>SUSTATIVO</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>scar</t>
+  </si>
+  <si>
+    <t>donor</t>
+  </si>
+  <si>
+    <t>roof tiler</t>
+  </si>
+  <si>
+    <t>handyman</t>
+  </si>
+  <si>
+    <t>salesman</t>
+  </si>
+  <si>
+    <t>skeptics</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>bigot</t>
+  </si>
+  <si>
+    <t>groomers</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>ammo</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>council</t>
+  </si>
+  <si>
+    <t>ssappers</t>
+  </si>
+  <si>
+    <t>riverbed</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>foundations</t>
+  </si>
+  <si>
+    <t>offenders</t>
+  </si>
+  <si>
+    <t>rubbish</t>
+  </si>
+  <si>
+    <t>lads</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>carriers</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>getaway</t>
+  </si>
+  <si>
+    <t>ordnance</t>
+  </si>
+  <si>
+    <t>wives</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>stingray</t>
+  </si>
+  <si>
+    <t>boozy</t>
+  </si>
+  <si>
+    <t>deputy</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>steelworks</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>backdrop</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>rubble</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>pipework</t>
+  </si>
+  <si>
+    <t>lightning bolts</t>
+  </si>
+  <si>
+    <t>planeload</t>
+  </si>
+  <si>
+    <t>bruises</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>treasure trove</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>slush</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>tire</t>
+  </si>
+  <si>
+    <t>grove</t>
+  </si>
+  <si>
+    <t>grazing</t>
+  </si>
+  <si>
+    <t>owls</t>
+  </si>
+  <si>
+    <t>smuggle</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>customs office</t>
+  </si>
+  <si>
+    <t>brass</t>
+  </si>
+  <si>
+    <t>heir</t>
+  </si>
+  <si>
+    <t>stockpiles</t>
+  </si>
+  <si>
+    <t>trouser</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>cork</t>
+  </si>
+  <si>
+    <t>stoppers</t>
+  </si>
+  <si>
+    <t>chippies</t>
+  </si>
+  <si>
+    <t>kebab</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>seabed</t>
+  </si>
+  <si>
+    <t>cress</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>crops</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>shockwaves</t>
+  </si>
+  <si>
+    <t>demonstrators</t>
+  </si>
+  <si>
+    <t>batons</t>
+  </si>
+  <si>
+    <t>culprit</t>
+  </si>
+  <si>
+    <t>syrup</t>
+  </si>
+  <si>
+    <t>tomb</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>creek</t>
+  </si>
+  <si>
+    <t>flowerpot</t>
+  </si>
+  <si>
+    <t>surgeon</t>
+  </si>
+  <si>
+    <t>traits</t>
+  </si>
+  <si>
+    <t>wurst</t>
+  </si>
+  <si>
+    <t>gravestone</t>
+  </si>
+  <si>
+    <t>warmonger</t>
+  </si>
+  <si>
+    <t>monger</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>barrack</t>
+  </si>
+  <si>
+    <t>oil rig</t>
+  </si>
+  <si>
+    <t>drillers</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>nuke</t>
+  </si>
+  <si>
+    <t>cloak</t>
+  </si>
+  <si>
+    <t>hillside</t>
+  </si>
+  <si>
+    <t>parachute</t>
+  </si>
+  <si>
+    <t>conveyor belt</t>
+  </si>
+  <si>
+    <t>salvo</t>
+  </si>
+  <si>
+    <t>tarmac</t>
+  </si>
+  <si>
+    <t>military gear</t>
+  </si>
+  <si>
+    <t>spate</t>
+  </si>
+  <si>
+    <t>depot</t>
+  </si>
+  <si>
+    <t>fasteners</t>
+  </si>
+  <si>
+    <t>dart</t>
+  </si>
+  <si>
+    <t>fireworks</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>fairfield</t>
+  </si>
+  <si>
+    <t>interloper</t>
+  </si>
+  <si>
+    <t>porcupines</t>
+  </si>
+  <si>
+    <t>wheelbarrow</t>
+  </si>
+  <si>
+    <t>dock</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>womb</t>
+  </si>
+  <si>
+    <t>SUSTANTIVOS CONCRETOS</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ABSTRACTO</t>
+  </si>
+  <si>
+    <t>custom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +3166,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,9 +3202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,15 +3522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FA7C0-11AD-4CFA-A004-4F662CF57691}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:S606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C607" sqref="C607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +3550,17 @@
       <c r="F1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -613,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,7 +3579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -635,7 +3590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -643,7 +3598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -655,7 +3610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -666,7 +3621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -674,7 +3629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -682,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -696,7 +3651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -704,7 +3659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -712,7 +3667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -720,7 +3675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -728,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -745,7 +3700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -835,6 +3790,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -846,6 +3804,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -857,6 +3818,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -865,6 +3829,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -873,6 +3840,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -881,6 +3851,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
@@ -889,6 +3862,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
@@ -897,6 +3873,9 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
@@ -905,11 +3884,6112 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" t="s">
+        <v>116</v>
+      </c>
+      <c r="P61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" t="s">
+        <v>154</v>
+      </c>
+      <c r="L66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" t="s">
+        <v>158</v>
+      </c>
+      <c r="R69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="P72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" t="s">
+        <v>172</v>
+      </c>
+      <c r="H82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G90" t="s">
+        <v>181</v>
+      </c>
+      <c r="H90" t="s">
+        <v>183</v>
+      </c>
+      <c r="L90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" t="s">
+        <v>220</v>
+      </c>
+      <c r="G95" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="E97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G100" t="s">
+        <v>225</v>
+      </c>
+      <c r="H100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" t="s">
+        <v>218</v>
+      </c>
+      <c r="G104" t="s">
+        <v>228</v>
+      </c>
+      <c r="H104" t="s">
+        <v>229</v>
+      </c>
+      <c r="I104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G105" t="s">
+        <v>230</v>
+      </c>
+      <c r="H105" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>198</v>
+      </c>
+      <c r="L106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" t="s">
+        <v>200</v>
+      </c>
+      <c r="G108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+      <c r="G110" t="s">
+        <v>234</v>
+      </c>
+      <c r="H110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" t="s">
+        <v>237</v>
+      </c>
+      <c r="F114" t="s">
+        <v>237</v>
+      </c>
+      <c r="R114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C118" t="s">
+        <v>240</v>
+      </c>
+      <c r="E118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
+      <c r="F121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
+        <v>214</v>
+      </c>
+      <c r="F122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" t="s">
+        <v>221</v>
+      </c>
+      <c r="E125" t="s">
+        <v>221</v>
+      </c>
+      <c r="F125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>247</v>
+      </c>
+      <c r="F128" t="s">
+        <v>265</v>
+      </c>
+      <c r="G128" t="s">
+        <v>266</v>
+      </c>
+      <c r="L128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" t="s">
+        <v>268</v>
+      </c>
+      <c r="F129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E130" t="s">
+        <v>272</v>
+      </c>
+      <c r="G130" t="s">
+        <v>271</v>
+      </c>
+      <c r="L130" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" t="s">
+        <v>274</v>
+      </c>
+      <c r="G131" t="s">
+        <v>276</v>
+      </c>
+      <c r="L131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F132" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+      <c r="L134" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F137" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P138" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G141" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G142" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G143" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G147" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G150" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156" t="s">
+        <v>318</v>
+      </c>
+      <c r="E156" t="s">
+        <v>318</v>
+      </c>
+      <c r="F156" t="s">
+        <v>318</v>
+      </c>
+      <c r="G156" t="s">
+        <v>317</v>
+      </c>
+      <c r="H156" t="s">
+        <v>319</v>
+      </c>
+      <c r="P156" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D157" t="s">
+        <v>321</v>
+      </c>
+      <c r="F157" t="s">
+        <v>321</v>
+      </c>
+      <c r="G157" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G158" t="s">
+        <v>324</v>
+      </c>
+      <c r="P158" t="s">
+        <v>323</v>
+      </c>
+      <c r="R158" t="s">
+        <v>324</v>
+      </c>
+      <c r="S158" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G161" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" t="s">
+        <v>296</v>
+      </c>
+      <c r="E162" t="s">
+        <v>330</v>
+      </c>
+      <c r="F162" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G163" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" t="s">
+        <v>333</v>
+      </c>
+      <c r="G165" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>300</v>
+      </c>
+      <c r="G166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>304</v>
+      </c>
+      <c r="G170" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>305</v>
+      </c>
+      <c r="E171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>306</v>
+      </c>
+      <c r="F172" t="s">
+        <v>338</v>
+      </c>
+      <c r="G172" t="s">
+        <v>337</v>
+      </c>
+      <c r="H172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>307</v>
+      </c>
+      <c r="E173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>308</v>
+      </c>
+      <c r="L174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>309</v>
+      </c>
+      <c r="G175" t="s">
+        <v>342</v>
+      </c>
+      <c r="R175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>311</v>
+      </c>
+      <c r="G177" t="s">
+        <v>344</v>
+      </c>
+      <c r="H177" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>314</v>
+      </c>
+      <c r="F180" t="s">
+        <v>346</v>
+      </c>
+      <c r="P180" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>348</v>
+      </c>
+      <c r="C183" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>349</v>
+      </c>
+      <c r="F184" t="s">
+        <v>379</v>
+      </c>
+      <c r="G184" t="s">
+        <v>380</v>
+      </c>
+      <c r="H184" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>350</v>
+      </c>
+      <c r="F185" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>351</v>
+      </c>
+      <c r="F186" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>352</v>
+      </c>
+      <c r="C187" t="s">
+        <v>384</v>
+      </c>
+      <c r="R187" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" t="s">
+        <v>388</v>
+      </c>
+      <c r="E189" t="s">
+        <v>387</v>
+      </c>
+      <c r="G189" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>356</v>
+      </c>
+      <c r="G191" t="s">
+        <v>391</v>
+      </c>
+      <c r="R191" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>357</v>
+      </c>
+      <c r="G192" t="s">
+        <v>393</v>
+      </c>
+      <c r="H192" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>358</v>
+      </c>
+      <c r="C193" t="s">
+        <v>286</v>
+      </c>
+      <c r="G193" t="s">
+        <v>395</v>
+      </c>
+      <c r="H193" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>359</v>
+      </c>
+      <c r="G194" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>360</v>
+      </c>
+      <c r="F195" t="s">
+        <v>360</v>
+      </c>
+      <c r="G195" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>363</v>
+      </c>
+      <c r="G198" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>364</v>
+      </c>
+      <c r="G199" t="s">
+        <v>400</v>
+      </c>
+      <c r="H199" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>366</v>
+      </c>
+      <c r="C201" t="s">
+        <v>389</v>
+      </c>
+      <c r="F201" t="s">
+        <v>403</v>
+      </c>
+      <c r="G201" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>367</v>
+      </c>
+      <c r="D202" t="s">
+        <v>405</v>
+      </c>
+      <c r="F202" t="s">
+        <v>406</v>
+      </c>
+      <c r="G202" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>368</v>
+      </c>
+      <c r="G203" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>369</v>
+      </c>
+      <c r="E204" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>370</v>
+      </c>
+      <c r="G205" t="s">
+        <v>409</v>
+      </c>
+      <c r="H205" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>371</v>
+      </c>
+      <c r="E206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>375</v>
+      </c>
+      <c r="E210" t="s">
+        <v>390</v>
+      </c>
+      <c r="R210" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>377</v>
+      </c>
+      <c r="E212" t="s">
+        <v>414</v>
+      </c>
+      <c r="G212" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C213" t="s">
+        <v>443</v>
+      </c>
+      <c r="E213" t="s">
+        <v>443</v>
+      </c>
+      <c r="G213" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E214" t="s">
+        <v>447</v>
+      </c>
+      <c r="F214" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F215" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C216" t="s">
+        <v>451</v>
+      </c>
+      <c r="E216" t="s">
+        <v>451</v>
+      </c>
+      <c r="G216" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C218" t="s">
+        <v>420</v>
+      </c>
+      <c r="E218" t="s">
+        <v>453</v>
+      </c>
+      <c r="F218" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C220" t="s">
+        <v>421</v>
+      </c>
+      <c r="E220" t="s">
+        <v>454</v>
+      </c>
+      <c r="F220" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D224" t="s">
+        <v>456</v>
+      </c>
+      <c r="G224" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C225" t="s">
+        <v>425</v>
+      </c>
+      <c r="E225" t="s">
+        <v>458</v>
+      </c>
+      <c r="G225" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F228" t="s">
+        <v>460</v>
+      </c>
+      <c r="G228" t="s">
+        <v>461</v>
+      </c>
+      <c r="H228" t="s">
+        <v>462</v>
+      </c>
+      <c r="R228" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E229" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="L230" t="s">
+        <v>464</v>
+      </c>
+      <c r="M230" t="s">
+        <v>465</v>
+      </c>
+      <c r="P230" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E231" t="s">
+        <v>431</v>
+      </c>
+      <c r="F231" t="s">
+        <v>431</v>
+      </c>
+      <c r="G231" t="s">
+        <v>466</v>
+      </c>
+      <c r="H231" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C232" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C233" t="s">
+        <v>469</v>
+      </c>
+      <c r="F233" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C234" t="s">
+        <v>470</v>
+      </c>
+      <c r="E234" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="R239" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G242" t="s">
+        <v>473</v>
+      </c>
+      <c r="H242" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C246" t="s">
+        <v>507</v>
+      </c>
+      <c r="E246" t="s">
+        <v>507</v>
+      </c>
+      <c r="F246" t="s">
+        <v>510</v>
+      </c>
+      <c r="G246" t="s">
+        <v>509</v>
+      </c>
+      <c r="H246" t="s">
+        <v>511</v>
+      </c>
+      <c r="I246" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G248" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D250" t="s">
+        <v>517</v>
+      </c>
+      <c r="F250" t="s">
+        <v>516</v>
+      </c>
+      <c r="G250" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G254" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C256" t="s">
+        <v>518</v>
+      </c>
+      <c r="E256" t="s">
+        <v>518</v>
+      </c>
+      <c r="G256" t="s">
+        <v>523</v>
+      </c>
+      <c r="H256" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E259" t="s">
+        <v>508</v>
+      </c>
+      <c r="F259" t="s">
+        <v>525</v>
+      </c>
+      <c r="G259" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G260" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F261" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D265" t="s">
+        <v>519</v>
+      </c>
+      <c r="G265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C267" t="s">
+        <v>530</v>
+      </c>
+      <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="G267" t="s">
+        <v>531</v>
+      </c>
+      <c r="P267" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C270" t="s">
+        <v>296</v>
+      </c>
+      <c r="E270" t="s">
+        <v>296</v>
+      </c>
+      <c r="F270" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C271" t="s">
+        <v>520</v>
+      </c>
+      <c r="E271" t="s">
+        <v>520</v>
+      </c>
+      <c r="F271" t="s">
+        <v>535</v>
+      </c>
+      <c r="G271" t="s">
+        <v>533</v>
+      </c>
+      <c r="H271" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C272" t="s">
+        <v>521</v>
+      </c>
+      <c r="E272" t="s">
+        <v>536</v>
+      </c>
+      <c r="F272" t="s">
+        <v>538</v>
+      </c>
+      <c r="G272" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C273" t="s">
+        <v>522</v>
+      </c>
+      <c r="E273" t="s">
+        <v>522</v>
+      </c>
+      <c r="F273" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E275" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F277" t="s">
+        <v>575</v>
+      </c>
+      <c r="G277" t="s">
+        <v>576</v>
+      </c>
+      <c r="P277" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E278" t="s">
+        <v>542</v>
+      </c>
+      <c r="F278" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>543</v>
+      </c>
+      <c r="E279" t="s">
+        <v>578</v>
+      </c>
+      <c r="F279" t="s">
+        <v>580</v>
+      </c>
+      <c r="R279" t="s">
+        <v>578</v>
+      </c>
+      <c r="S279" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>544</v>
+      </c>
+      <c r="D280" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>545</v>
+      </c>
+      <c r="D281" t="s">
+        <v>582</v>
+      </c>
+      <c r="F281" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>546</v>
+      </c>
+      <c r="L282" t="s">
+        <v>584</v>
+      </c>
+      <c r="M282" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>547</v>
+      </c>
+      <c r="D283" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>548</v>
+      </c>
+      <c r="D284" t="s">
+        <v>586</v>
+      </c>
+      <c r="F284" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>549</v>
+      </c>
+      <c r="E285" t="s">
+        <v>588</v>
+      </c>
+      <c r="F285" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>550</v>
+      </c>
+      <c r="D286" t="s">
+        <v>590</v>
+      </c>
+      <c r="G286" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>551</v>
+      </c>
+      <c r="D287" t="s">
+        <v>551</v>
+      </c>
+      <c r="E287" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>552</v>
+      </c>
+      <c r="E288" t="s">
+        <v>594</v>
+      </c>
+      <c r="F288" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>553</v>
+      </c>
+      <c r="D289" t="s">
+        <v>596</v>
+      </c>
+      <c r="E289" t="s">
+        <v>597</v>
+      </c>
+      <c r="F289" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>554</v>
+      </c>
+      <c r="E290" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>555</v>
+      </c>
+      <c r="D291" t="s">
+        <v>599</v>
+      </c>
+      <c r="E291" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>556</v>
+      </c>
+      <c r="D292" t="s">
+        <v>604</v>
+      </c>
+      <c r="E292" t="s">
+        <v>605</v>
+      </c>
+      <c r="F292" t="s">
+        <v>602</v>
+      </c>
+      <c r="G292" t="s">
+        <v>601</v>
+      </c>
+      <c r="R292" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>557</v>
+      </c>
+      <c r="E293" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>558</v>
+      </c>
+      <c r="F294" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>559</v>
+      </c>
+      <c r="D295" t="s">
+        <v>610</v>
+      </c>
+      <c r="E295" t="s">
+        <v>611</v>
+      </c>
+      <c r="F295" t="s">
+        <v>608</v>
+      </c>
+      <c r="G295" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>560</v>
+      </c>
+      <c r="D296" t="s">
+        <v>560</v>
+      </c>
+      <c r="F296" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>561</v>
+      </c>
+      <c r="E297" t="s">
+        <v>561</v>
+      </c>
+      <c r="F297" t="s">
+        <v>613</v>
+      </c>
+      <c r="R297" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>562</v>
+      </c>
+      <c r="E298" t="s">
+        <v>616</v>
+      </c>
+      <c r="F298" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>563</v>
+      </c>
+      <c r="D299" t="s">
+        <v>619</v>
+      </c>
+      <c r="E299" t="s">
+        <v>620</v>
+      </c>
+      <c r="F299" t="s">
+        <v>618</v>
+      </c>
+      <c r="G299" t="s">
+        <v>621</v>
+      </c>
+      <c r="R299" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>564</v>
+      </c>
+      <c r="D300" t="s">
+        <v>623</v>
+      </c>
+      <c r="E300" t="s">
+        <v>624</v>
+      </c>
+      <c r="F300" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>565</v>
+      </c>
+      <c r="D301" t="s">
+        <v>565</v>
+      </c>
+      <c r="F301" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>566</v>
+      </c>
+      <c r="D302" t="s">
+        <v>626</v>
+      </c>
+      <c r="F302" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>567</v>
+      </c>
+      <c r="D303" t="s">
+        <v>628</v>
+      </c>
+      <c r="E303" t="s">
+        <v>567</v>
+      </c>
+      <c r="F303" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>568</v>
+      </c>
+      <c r="F304" t="s">
+        <v>630</v>
+      </c>
+      <c r="R304" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>569</v>
+      </c>
+      <c r="D305" t="s">
+        <v>633</v>
+      </c>
+      <c r="E305" t="s">
+        <v>634</v>
+      </c>
+      <c r="F305" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>570</v>
+      </c>
+      <c r="D306" t="s">
+        <v>635</v>
+      </c>
+      <c r="E306" t="s">
+        <v>637</v>
+      </c>
+      <c r="F306" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>571</v>
+      </c>
+      <c r="D307" t="s">
+        <v>638</v>
+      </c>
+      <c r="E307" t="s">
+        <v>640</v>
+      </c>
+      <c r="F307" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>572</v>
+      </c>
+      <c r="D308" t="s">
+        <v>572</v>
+      </c>
+      <c r="F308" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>573</v>
+      </c>
+      <c r="E309" t="s">
+        <v>642</v>
+      </c>
+      <c r="F309" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>644</v>
+      </c>
+      <c r="D310" t="s">
+        <v>646</v>
+      </c>
+      <c r="E310" t="s">
+        <v>648</v>
+      </c>
+      <c r="F310" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>645</v>
+      </c>
+      <c r="D311" t="s">
+        <v>649</v>
+      </c>
+      <c r="E311" t="s">
+        <v>651</v>
+      </c>
+      <c r="F311" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>812</v>
+      </c>
+      <c r="D313" t="s">
+        <v>814</v>
+      </c>
+      <c r="F313" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>652</v>
+      </c>
+      <c r="E314" t="s">
+        <v>652</v>
+      </c>
+      <c r="F314" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>653</v>
+      </c>
+      <c r="D315" t="s">
+        <v>819</v>
+      </c>
+      <c r="E315" t="s">
+        <v>821</v>
+      </c>
+      <c r="F315" t="s">
+        <v>684</v>
+      </c>
+      <c r="L315" t="s">
+        <v>820</v>
+      </c>
+      <c r="R315" t="s">
+        <v>817</v>
+      </c>
+      <c r="S315" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>218</v>
+      </c>
+      <c r="D316" t="s">
+        <v>822</v>
+      </c>
+      <c r="E316" t="s">
+        <v>823</v>
+      </c>
+      <c r="F316" t="s">
+        <v>824</v>
+      </c>
+      <c r="G316" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>654</v>
+      </c>
+      <c r="D317" t="s">
+        <v>827</v>
+      </c>
+      <c r="E317" t="s">
+        <v>826</v>
+      </c>
+      <c r="F317" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>655</v>
+      </c>
+      <c r="D318" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>656</v>
+      </c>
+      <c r="D319" t="s">
+        <v>829</v>
+      </c>
+      <c r="E319" t="s">
+        <v>831</v>
+      </c>
+      <c r="F319" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>657</v>
+      </c>
+      <c r="D320" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>658</v>
+      </c>
+      <c r="D321" t="s">
+        <v>658</v>
+      </c>
+      <c r="E321" t="s">
+        <v>834</v>
+      </c>
+      <c r="F321" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>659</v>
+      </c>
+      <c r="E322" t="s">
+        <v>835</v>
+      </c>
+      <c r="R322" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>660</v>
+      </c>
+      <c r="D323" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>661</v>
+      </c>
+      <c r="D324" t="s">
+        <v>661</v>
+      </c>
+      <c r="F324" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>662</v>
+      </c>
+      <c r="D325" t="s">
+        <v>839</v>
+      </c>
+      <c r="F325" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>663</v>
+      </c>
+      <c r="D326" t="s">
+        <v>842</v>
+      </c>
+      <c r="F326" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>664</v>
+      </c>
+      <c r="E327" t="s">
+        <v>844</v>
+      </c>
+      <c r="F327" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>665</v>
+      </c>
+      <c r="D328" t="s">
+        <v>846</v>
+      </c>
+      <c r="E328" t="s">
+        <v>847</v>
+      </c>
+      <c r="F328" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>666</v>
+      </c>
+      <c r="D329" t="s">
+        <v>666</v>
+      </c>
+      <c r="G329" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>667</v>
+      </c>
+      <c r="D330" t="s">
+        <v>851</v>
+      </c>
+      <c r="E330" t="s">
+        <v>849</v>
+      </c>
+      <c r="F330" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>852</v>
+      </c>
+      <c r="D331" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>668</v>
+      </c>
+      <c r="D332" t="s">
+        <v>854</v>
+      </c>
+      <c r="E332" t="s">
+        <v>856</v>
+      </c>
+      <c r="F332" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>669</v>
+      </c>
+      <c r="D333" t="s">
+        <v>858</v>
+      </c>
+      <c r="E333" t="s">
+        <v>859</v>
+      </c>
+      <c r="F333" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>670</v>
+      </c>
+      <c r="F334" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>671</v>
+      </c>
+      <c r="F335" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>672</v>
+      </c>
+      <c r="C336" t="s">
+        <v>862</v>
+      </c>
+      <c r="F336" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>673</v>
+      </c>
+      <c r="D337" t="s">
+        <v>673</v>
+      </c>
+      <c r="P337" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>674</v>
+      </c>
+      <c r="D338" t="s">
+        <v>863</v>
+      </c>
+      <c r="F338" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>675</v>
+      </c>
+      <c r="D339" t="s">
+        <v>864</v>
+      </c>
+      <c r="F339" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>676</v>
+      </c>
+      <c r="E340" t="s">
+        <v>876</v>
+      </c>
+      <c r="F340" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>677</v>
+      </c>
+      <c r="D341" t="s">
+        <v>877</v>
+      </c>
+      <c r="E341" t="s">
+        <v>880</v>
+      </c>
+      <c r="G341" t="s">
+        <v>878</v>
+      </c>
+      <c r="H341" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>678</v>
+      </c>
+      <c r="D342" t="s">
+        <v>882</v>
+      </c>
+      <c r="F342" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>679</v>
+      </c>
+      <c r="D343" t="s">
+        <v>883</v>
+      </c>
+      <c r="F343" t="s">
+        <v>872</v>
+      </c>
+      <c r="G343" t="s">
+        <v>884</v>
+      </c>
+      <c r="H343" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>680</v>
+      </c>
+      <c r="C344" t="s">
+        <v>865</v>
+      </c>
+      <c r="D344" t="s">
+        <v>680</v>
+      </c>
+      <c r="F344" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>681</v>
+      </c>
+      <c r="D345" t="s">
+        <v>866</v>
+      </c>
+      <c r="E345" t="s">
+        <v>889</v>
+      </c>
+      <c r="F345" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>682</v>
+      </c>
+      <c r="D346" t="s">
+        <v>890</v>
+      </c>
+      <c r="E346" t="s">
+        <v>894</v>
+      </c>
+      <c r="F346" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>683</v>
+      </c>
+      <c r="F347" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>348</v>
+      </c>
+      <c r="B348" t="s">
+        <v>685</v>
+      </c>
+      <c r="D348" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>349</v>
+      </c>
+      <c r="B349" t="s">
+        <v>686</v>
+      </c>
+      <c r="D349" t="s">
+        <v>898</v>
+      </c>
+      <c r="E349" t="s">
+        <v>897</v>
+      </c>
+      <c r="F349" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>350</v>
+      </c>
+      <c r="B350" t="s">
+        <v>687</v>
+      </c>
+      <c r="F350" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>688</v>
+      </c>
+      <c r="E351" t="s">
+        <v>899</v>
+      </c>
+      <c r="F351" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>689</v>
+      </c>
+      <c r="F352" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>353</v>
+      </c>
+      <c r="B353" t="s">
+        <v>690</v>
+      </c>
+      <c r="D353" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>691</v>
+      </c>
+      <c r="D354" t="s">
+        <v>901</v>
+      </c>
+      <c r="F354" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>692</v>
+      </c>
+      <c r="F355" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
+        <v>693</v>
+      </c>
+      <c r="E356" t="s">
+        <v>693</v>
+      </c>
+      <c r="F356" t="s">
+        <v>904</v>
+      </c>
+      <c r="G356" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357" t="s">
+        <v>694</v>
+      </c>
+      <c r="E357" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>695</v>
+      </c>
+      <c r="D358" t="s">
+        <v>891</v>
+      </c>
+      <c r="F358" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>696</v>
+      </c>
+      <c r="D359" t="s">
+        <v>696</v>
+      </c>
+      <c r="F359" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360" t="s">
+        <v>517</v>
+      </c>
+      <c r="D360" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>362</v>
+      </c>
+      <c r="B362" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>363</v>
+      </c>
+      <c r="B363" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>364</v>
+      </c>
+      <c r="B364" t="s">
+        <v>700</v>
+      </c>
+      <c r="C364" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>365</v>
+      </c>
+      <c r="B365" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>366</v>
+      </c>
+      <c r="B366" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>713</v>
+      </c>
+      <c r="C377" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>720</v>
+      </c>
+      <c r="C384" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>723</v>
+      </c>
+      <c r="C387" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>728</v>
+      </c>
+      <c r="C392" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>729</v>
+      </c>
+      <c r="C393" s="4"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>730</v>
+      </c>
+      <c r="C394" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>737</v>
+      </c>
+      <c r="C401" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>738</v>
+      </c>
+      <c r="C402" s="4"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>743</v>
+      </c>
+      <c r="C407" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>744</v>
+      </c>
+      <c r="C408" s="4"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>748</v>
+      </c>
+      <c r="C412" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>749</v>
+      </c>
+      <c r="C413" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>751</v>
+      </c>
+      <c r="C415" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>416</v>
+      </c>
+      <c r="B416" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>417</v>
+      </c>
+      <c r="B417" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>418</v>
+      </c>
+      <c r="B418" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>419</v>
+      </c>
+      <c r="B419" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>420</v>
+      </c>
+      <c r="B420" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>421</v>
+      </c>
+      <c r="B421" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>422</v>
+      </c>
+      <c r="B422" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>423</v>
+      </c>
+      <c r="B423" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>424</v>
+      </c>
+      <c r="B424" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>425</v>
+      </c>
+      <c r="B425" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>426</v>
+      </c>
+      <c r="B426" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>427</v>
+      </c>
+      <c r="B427" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>428</v>
+      </c>
+      <c r="B428" t="s">
+        <v>764</v>
+      </c>
+      <c r="C428" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>429</v>
+      </c>
+      <c r="B429" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>430</v>
+      </c>
+      <c r="B430" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>431</v>
+      </c>
+      <c r="B431" t="s">
+        <v>767</v>
+      </c>
+      <c r="C431" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>432</v>
+      </c>
+      <c r="B432" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>433</v>
+      </c>
+      <c r="B433" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>434</v>
+      </c>
+      <c r="B434" t="s">
+        <v>770</v>
+      </c>
+      <c r="C434" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>435</v>
+      </c>
+      <c r="B435" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>436</v>
+      </c>
+      <c r="B436" t="s">
+        <v>772</v>
+      </c>
+      <c r="C436" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>437</v>
+      </c>
+      <c r="B437" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>438</v>
+      </c>
+      <c r="B438" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>439</v>
+      </c>
+      <c r="B439" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>440</v>
+      </c>
+      <c r="B440" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>441</v>
+      </c>
+      <c r="B441" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>442</v>
+      </c>
+      <c r="B442" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>443</v>
+      </c>
+      <c r="B443" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>444</v>
+      </c>
+      <c r="B444" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>445</v>
+      </c>
+      <c r="B445" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>446</v>
+      </c>
+      <c r="B446" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>447</v>
+      </c>
+      <c r="B447" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>448</v>
+      </c>
+      <c r="B448" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>449</v>
+      </c>
+      <c r="B449" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>450</v>
+      </c>
+      <c r="B450" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>451</v>
+      </c>
+      <c r="B451" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>452</v>
+      </c>
+      <c r="B452" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>454</v>
+      </c>
+      <c r="B453" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>455</v>
+      </c>
+      <c r="B454" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>456</v>
+      </c>
+      <c r="B455" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>457</v>
+      </c>
+      <c r="B456" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>458</v>
+      </c>
+      <c r="B457" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>459</v>
+      </c>
+      <c r="B458" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>460</v>
+      </c>
+      <c r="B459" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>461</v>
+      </c>
+      <c r="B460" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>462</v>
+      </c>
+      <c r="B461" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>463</v>
+      </c>
+      <c r="B462" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>464</v>
+      </c>
+      <c r="B463" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>465</v>
+      </c>
+      <c r="B464" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>466</v>
+      </c>
+      <c r="B465" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>467</v>
+      </c>
+      <c r="B466" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>468</v>
+      </c>
+      <c r="B467" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>469</v>
+      </c>
+      <c r="B468" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>470</v>
+      </c>
+      <c r="B469" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>471</v>
+      </c>
+      <c r="B470" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>472</v>
+      </c>
+      <c r="B471" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>473</v>
+      </c>
+      <c r="B472" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>474</v>
+      </c>
+      <c r="B473" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>475</v>
+      </c>
+      <c r="B474" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>476</v>
+      </c>
+      <c r="B475" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>477</v>
+      </c>
+      <c r="B476" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>478</v>
+      </c>
+      <c r="B477" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>479</v>
+      </c>
+      <c r="B478" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>480</v>
+      </c>
+      <c r="B479" t="s">
+        <v>912</v>
+      </c>
+      <c r="C479" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>928</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509" t="s">
+        <v>941</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514" t="s">
+        <v>946</v>
+      </c>
+      <c r="C514" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520" t="s">
+        <v>952</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529" t="s">
+        <v>961</v>
+      </c>
+      <c r="C529" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530" t="s">
+        <v>962</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="B544" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="B548" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="B549" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="B550" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="B551" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="B554" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555" t="s">
+        <v>986</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/BaseDatosIngles.xlsx
+++ b/src/excel/BaseDatosIngles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45CFE9-96E3-42D6-BA9A-CE5474F1F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB2347-F44D-4815-9F88-D0FE59C30CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E275EF6E-4BBA-4CAE-93FE-32B203E29D4F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1222">
   <si>
     <t>ID</t>
   </si>
@@ -3149,6 +3149,558 @@
   </si>
   <si>
     <t>custom</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>freelance</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>censorship</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>envoy</t>
+  </si>
+  <si>
+    <t>liverwurst</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>nerves</t>
+  </si>
+  <si>
+    <t>attitude</t>
+  </si>
+  <si>
+    <t>sake</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>risk spiraling</t>
+  </si>
+  <si>
+    <t>stance</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>SUSTANTIVOS ABSTRACTOS</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>retreat</t>
+  </si>
+  <si>
+    <t>airstrake</t>
+  </si>
+  <si>
+    <t>underway</t>
+  </si>
+  <si>
+    <t>broakcast</t>
+  </si>
+  <si>
+    <t>glitch</t>
+  </si>
+  <si>
+    <t>full swing</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>willing</t>
+  </si>
+  <si>
+    <t>brand-new</t>
+  </si>
+  <si>
+    <t>decree</t>
+  </si>
+  <si>
+    <t>foolproof</t>
+  </si>
+  <si>
+    <t>downsides</t>
+  </si>
+  <si>
+    <t>ill-timed</t>
+  </si>
+  <si>
+    <t>slap</t>
+  </si>
+  <si>
+    <t>overwhelming</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>sheer number</t>
+  </si>
+  <si>
+    <t>untold</t>
+  </si>
+  <si>
+    <t>crackdown</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>exacting</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>instability</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>thriving</t>
+  </si>
+  <si>
+    <t>detritus</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>skyline</t>
+  </si>
+  <si>
+    <t>glimpse</t>
+  </si>
+  <si>
+    <t>revenues</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>youth</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>plenty</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>quid</t>
+  </si>
+  <si>
+    <t>trick</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>footage</t>
+  </si>
+  <si>
+    <t>woes</t>
+  </si>
+  <si>
+    <t>accession</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>headroom</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>damning</t>
+  </si>
+  <si>
+    <t>laundering</t>
+  </si>
+  <si>
+    <t>squarely</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>hardships</t>
+  </si>
+  <si>
+    <t>breathwork</t>
+  </si>
+  <si>
+    <t>mainstream</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>filing</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>arson</t>
+  </si>
+  <si>
+    <t>procurement</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>takeaway</t>
+  </si>
+  <si>
+    <t>upside</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>vow</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>criticism</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>backlash</t>
+  </si>
+  <si>
+    <t>accomplishment</t>
+  </si>
+  <si>
+    <t>mockery</t>
+  </si>
+  <si>
+    <t>soaker</t>
+  </si>
+  <si>
+    <t>media outlets</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>landmark ruling</t>
+  </si>
+  <si>
+    <t>smallpox</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>supply issues</t>
+  </si>
+  <si>
+    <t>chip shop</t>
+  </si>
+  <si>
+    <t>sight</t>
+  </si>
+  <si>
+    <t>finding</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>disrepair</t>
+  </si>
+  <si>
+    <t>aftermath</t>
+  </si>
+  <si>
+    <t>accretion</t>
+  </si>
+  <si>
+    <t>swirl</t>
+  </si>
+  <si>
+    <t>final straw</t>
+  </si>
+  <si>
+    <t>takeoff</t>
+  </si>
+  <si>
+    <t>state media</t>
+  </si>
+  <si>
+    <t>social media</t>
+  </si>
+  <si>
+    <t>whammy</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>roadblock</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>pastime</t>
+  </si>
+  <si>
+    <t>secrecy</t>
+  </si>
+  <si>
+    <t>curfew</t>
+  </si>
+  <si>
+    <t>wreath-laying</t>
+  </si>
+  <si>
+    <t>saltiness</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>accountability</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>guise</t>
+  </si>
+  <si>
+    <t>behest</t>
+  </si>
+  <si>
+    <t>lawsuit</t>
+  </si>
+  <si>
+    <t>gaffe</t>
+  </si>
+  <si>
+    <t>statesmanlike</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>outskirt</t>
+  </si>
+  <si>
+    <t>inroad</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>chaps</t>
+  </si>
+  <si>
+    <t>hungover</t>
+  </si>
+  <si>
+    <t>ruling</t>
+  </si>
+  <si>
+    <t>betrayal</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>likeliness</t>
+  </si>
+  <si>
+    <t>standoff</t>
+  </si>
+  <si>
+    <t>penchant</t>
+  </si>
+  <si>
+    <t>craft</t>
+  </si>
+  <si>
+    <t>casing</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>feats</t>
+  </si>
+  <si>
+    <t>wreck</t>
+  </si>
+  <si>
+    <t>mate</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>bounty</t>
+  </si>
+  <si>
+    <t>bout</t>
+  </si>
+  <si>
+    <t>brow</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>freak</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>detainees</t>
+  </si>
+  <si>
+    <t>tripwires</t>
+  </si>
+  <si>
+    <t>felony</t>
+  </si>
+  <si>
+    <t>havoc</t>
+  </si>
+  <si>
+    <t>mayhem</t>
+  </si>
+  <si>
+    <t>slumber</t>
+  </si>
+  <si>
+    <t>stitch</t>
+  </si>
+  <si>
+    <t>snip</t>
+  </si>
+  <si>
+    <t>snippet</t>
+  </si>
+  <si>
+    <t>overcoat</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t>CONCRETO</t>
+  </si>
+  <si>
+    <t>valiente</t>
+  </si>
+  <si>
+    <t>enviado</t>
+  </si>
+  <si>
+    <t>embutido</t>
+  </si>
+  <si>
+    <t>prospecto</t>
+  </si>
+  <si>
+    <t>nervios</t>
+  </si>
+  <si>
+    <t>ADVERBIO</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>VERBO</t>
+  </si>
+  <si>
+    <t>clash</t>
+  </si>
+  <si>
+    <t>tambien VERBO</t>
+  </si>
+  <si>
+    <t>tmabien VERBO</t>
+  </si>
+  <si>
+    <t>infalible</t>
+  </si>
+  <si>
+    <t>inapropiado</t>
+  </si>
+  <si>
+    <t>tambine VERBO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>detritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">painstaking </t>
   </si>
 </sst>
 </file>
@@ -3522,11 +4074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FA7C0-11AD-4CFA-A004-4F662CF57691}">
-  <dimension ref="A1:S606"/>
+  <dimension ref="A1:S785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C607" sqref="C607"/>
+      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C650" sqref="C650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9985,11 +10537,1528 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>604</v>
+      </c>
       <c r="B606" t="s">
         <v>1037</v>
       </c>
       <c r="C606" t="s">
         <v>1036</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>605</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>606</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>607</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>608</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>609</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>610</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>611</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>612</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>613</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>614</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>615</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>616</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>617</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>618</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>619</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>620</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>621</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>622</v>
+      </c>
+      <c r="B626" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>623</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>624</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>625</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>626</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>627</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>628</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>629</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>630</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>631</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>632</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>633</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C637" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>634</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>635</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>636</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C640" t="s">
+        <v>907</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>637</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>638</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C642" t="s">
+        <v>907</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>639</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>640</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C644" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>641</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>642</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>643</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>644</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C648" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>645</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>646</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>647</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C651" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>648</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>649</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>650</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>651</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C655" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>653</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C658" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>689</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>690</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>691</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>692</v>
+      </c>
+      <c r="B693" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>693</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>694</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>695</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>696</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>697</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>698</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>699</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>700</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>701</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>702</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>703</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>704</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>705</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>706</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>707</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>708</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>709</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>710</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>711</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>712</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>713</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>714</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>715</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>716</v>
+      </c>
+      <c r="B717" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>717</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>718</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>719</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>720</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>721</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>723</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>724</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>725</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>726</v>
+      </c>
+      <c r="B726" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>727</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>728</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>729</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>730</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>731</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>732</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>733</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>735</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>736</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>737</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>738</v>
+      </c>
+      <c r="B737" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>739</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>740</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>741</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>742</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>743</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>744</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>745</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>746</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>747</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>748</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>749</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>750</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>751</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>752</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>753</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>754</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>755</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>756</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>757</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>758</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>759</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>760</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>761</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>762</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>763</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>764</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>765</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>766</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>767</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>768</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>770</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>771</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>772</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>773</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>775</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>776</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>777</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>778</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>780</v>
+      </c>
+      <c r="B776" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>781</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>782</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>783</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>784</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>785</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>786</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>787</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>788</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>789</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/BaseDatosIngles.xlsx
+++ b/src/excel/BaseDatosIngles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB2347-F44D-4815-9F88-D0FE59C30CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B0B00B-5620-4D59-A77E-0BA61824C41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E275EF6E-4BBA-4CAE-93FE-32B203E29D4F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1224">
   <si>
     <t>ID</t>
   </si>
@@ -3701,6 +3701,12 @@
   </si>
   <si>
     <t xml:space="preserve">painstaking </t>
+  </si>
+  <si>
+    <t>tambien ADJETIVO</t>
+  </si>
+  <si>
+    <t>upside down</t>
   </si>
 </sst>
 </file>
@@ -4077,8 +4083,8 @@
   <dimension ref="A1:S785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C650" sqref="C650"/>
+      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C733" sqref="C733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11060,6 +11066,9 @@
       <c r="B660" t="s">
         <v>1086</v>
       </c>
+      <c r="C660" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661">
@@ -11074,7 +11083,10 @@
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>1088</v>
+        <v>1132</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -11124,6 +11136,9 @@
       <c r="B668" t="s">
         <v>1094</v>
       </c>
+      <c r="C668" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669">
@@ -11143,922 +11158,946 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+      <c r="C677" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+      <c r="C683" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+      <c r="C686" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B703" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B714" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>1138</v>
+        <v>720</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B717" t="s">
-        <v>720</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B720" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B722" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B723" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B724" t="s">
-        <v>1145</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B725" t="s">
-        <v>1107</v>
+        <v>275</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B726" t="s">
-        <v>275</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B727" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B728" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B729" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B730" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B731" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B732" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B733" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B734" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B735" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B736" t="s">
-        <v>1155</v>
+        <v>839</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B737" t="s">
-        <v>839</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B738" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B739" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B740" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B741" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B742" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B743" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B744" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B745" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B746" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B747" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B748" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B749" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B750" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B751" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B752" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B753" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B754" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B755" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B756" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B757" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B758" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B759" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B760" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B761" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B762" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B763" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B764" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B765" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B766" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B767" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B768" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B771" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B772" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B773" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B774" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B775" t="s">
-        <v>1193</v>
+        <v>444</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B776" t="s">
-        <v>444</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B777" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B778" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B779" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B780" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B781" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B782" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B783" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B784" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785">
-        <v>789</v>
-      </c>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B785" t="s">
-        <v>1202</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
